--- a/Data/word-translation-synonyms.xlsx
+++ b/Data/word-translation-synonyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\80104061\Documents\GitHub\capstone-project-letterhunter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938A6F07-078B-4260-9BDD-A5FB43874206}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDD8B1-DA30-4D3D-B412-EF53720D727A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="771">
   <si>
     <t>English Word</t>
   </si>
@@ -866,6 +866,1473 @@
   </si>
   <si>
     <t>أرنب, حيوان صغير, قارض, أرنب بري</t>
+  </si>
+  <si>
+    <t>Raccoon</t>
+  </si>
+  <si>
+    <t>راكون</t>
+  </si>
+  <si>
+    <t>راكون, حيوان ثديي, قارض, حيوان ليلي</t>
+  </si>
+  <si>
+    <t>Racket</t>
+  </si>
+  <si>
+    <t>مضرب</t>
+  </si>
+  <si>
+    <t>مضرب, أداة رياضية, أداة مضرب, مضرب تنس</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>فجل</t>
+  </si>
+  <si>
+    <t>فجل, خضار جذر, نبات جذر, فجل أحمر</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>غراب</t>
+  </si>
+  <si>
+    <t>غراب, طائر أسود, طائر كبير, طائر ضخم</t>
+  </si>
+  <si>
+    <t>Rays and skates</t>
+  </si>
+  <si>
+    <t>أشعة وقوب</t>
+  </si>
+  <si>
+    <t>أشعة وقوب, حيوانات بحرية, حيوانات مائية, قوب</t>
+  </si>
+  <si>
+    <t>Red panda</t>
+  </si>
+  <si>
+    <t>باندا حمراء</t>
+  </si>
+  <si>
+    <t>باندا حمراء, دب صغير, قارض, حيوان بري</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>ثلاجة</t>
+  </si>
+  <si>
+    <t>ثلاجة, جهاز تبريد, جهاز حفظ الطعام, ثلاجة كهربائية</t>
+  </si>
+  <si>
+    <t>Remote control</t>
+  </si>
+  <si>
+    <t>جهاز تحكم عن بُعد</t>
+  </si>
+  <si>
+    <t>جهاز تحكم عن بُعد, جهاز عن بُعد, وحدة تحكم, جهاز تحكم كهربائي</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>زواحف</t>
+  </si>
+  <si>
+    <t>زواحف, حيوانات زاحفة, حيوانات جلدية, زواحف مائية</t>
+  </si>
+  <si>
+    <t>Rhinoceros</t>
+  </si>
+  <si>
+    <t>وحيد قرن</t>
+  </si>
+  <si>
+    <t>وحيد قرن, حيوان ضخم, حيوان برمائي, وحيد القرن</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>بندقية</t>
+  </si>
+  <si>
+    <t>بندقية, سلاح ناري, بندقية صيد, بندقية قنص</t>
+  </si>
+  <si>
+    <t>Rocket</t>
+  </si>
+  <si>
+    <t>صاروخ, قذيفة, سلاح, مركبة فضائية</t>
+  </si>
+  <si>
+    <t>Roller skates</t>
+  </si>
+  <si>
+    <t>زلاجات رولر</t>
+  </si>
+  <si>
+    <t>زلاجات رولر, أحذية للتزلج, زلاجات رياضية, زلاجات دوارة</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>وردة</t>
+  </si>
+  <si>
+    <t>وردة, زهرة, نبات مزهر, نبات ذو رائحة عطرية</t>
+  </si>
+  <si>
+    <t>Rugby ball</t>
+  </si>
+  <si>
+    <t>كرة الرجبي</t>
+  </si>
+  <si>
+    <t>كرة الرجبي, كرة رياضية, كرة مطاطية, كرة سريعة</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>مسطرة</t>
+  </si>
+  <si>
+    <t>مسطرة, أداة قياس, شريط قياس, أداة مستقيمة</t>
+  </si>
+  <si>
+    <t>Salad</t>
+  </si>
+  <si>
+    <t>سلطة</t>
+  </si>
+  <si>
+    <t>سلطة, خضار مختلط, مزيج خضروات, طبق صحي</t>
+  </si>
+  <si>
+    <t>Salt and pepper shakers</t>
+  </si>
+  <si>
+    <t>مبردات الملح والفلفل</t>
+  </si>
+  <si>
+    <t>مبردات الملح والفلفل, حاويات توابل, أكياس توابل, مطحن</t>
+  </si>
+  <si>
+    <t>Sandal</t>
+  </si>
+  <si>
+    <t>صندل</t>
+  </si>
+  <si>
+    <t>صندل, حذاء مفتوح, حذاء صيفي, حذاء خفيف</t>
+  </si>
+  <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>ساندويتش</t>
+  </si>
+  <si>
+    <t>ساندويتش, شطيرة, طعام بين خبز, شطيرة لحم</t>
+  </si>
+  <si>
+    <t>Saucer</t>
+  </si>
+  <si>
+    <t>صحن, طبق صغير, لوح تقديم, صحن شاي</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>مقياس</t>
+  </si>
+  <si>
+    <t>مقياس, ميزان, جهاز وزن, جهاز قياس</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>وشاح</t>
+  </si>
+  <si>
+    <t>وشاح, شال, قطعة قماش, لباس دافئ</t>
+  </si>
+  <si>
+    <t>Scissors</t>
+  </si>
+  <si>
+    <t>مقص</t>
+  </si>
+  <si>
+    <t>مقص, أداة قص, جهاز قطع, أداة حادة</t>
+  </si>
+  <si>
+    <t>Scoreboard</t>
+  </si>
+  <si>
+    <t>لوحة النتائج</t>
+  </si>
+  <si>
+    <t>لوحة النتائج, شاشة نتائج, لوحة عرض, شاشة رياضية</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>عقرب</t>
+  </si>
+  <si>
+    <t>عقرب, حيوان سام, حشرة عقربية, حيوان زاحف</t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
+  </si>
+  <si>
+    <t>مفك</t>
+  </si>
+  <si>
+    <t>مفك, أداة فتح, أداة تدوير, أداة لتثبيت البراغي</t>
+  </si>
+  <si>
+    <t>Sculpture</t>
+  </si>
+  <si>
+    <t>تمثال</t>
+  </si>
+  <si>
+    <t>تمثال, عمل فني, منحوتة, شكل مجسم</t>
+  </si>
+  <si>
+    <t>Sea lion</t>
+  </si>
+  <si>
+    <t>أسد بحر</t>
+  </si>
+  <si>
+    <t>أسد بحر, حيوان مائي, بحرية, ثديي مائي</t>
+  </si>
+  <si>
+    <t>Sea turtle</t>
+  </si>
+  <si>
+    <t>سلحفاة بحرية</t>
+  </si>
+  <si>
+    <t>سلحفاة بحرية, حيوان مائي, سلحفاة مائية, حيوان بطيء</t>
+  </si>
+  <si>
+    <t>Seafood</t>
+  </si>
+  <si>
+    <t>مأكولات بحرية</t>
+  </si>
+  <si>
+    <t>مأكولات بحرية, طعام بحر, أطعمة بحرية, أسماك</t>
+  </si>
+  <si>
+    <t>Seahorse</t>
+  </si>
+  <si>
+    <t>فرس البحر</t>
+  </si>
+  <si>
+    <t>فرس البحر, حيوان مائي, سمكة صغيرة, حيوان بحري</t>
+  </si>
+  <si>
+    <t>Seat belt</t>
+  </si>
+  <si>
+    <t>حزام أمان</t>
+  </si>
+  <si>
+    <t>حزام أمان, حزام السلامة, حزام السيارة, حزام الأمان</t>
+  </si>
+  <si>
+    <t>Serving tray</t>
+  </si>
+  <si>
+    <t>صينية تقديم</t>
+  </si>
+  <si>
+    <t>صينية تقديم, صينية, طبق تقديم, صحن تقديم</t>
+  </si>
+  <si>
+    <t>Sewing machine</t>
+  </si>
+  <si>
+    <t>آلة خياطة</t>
+  </si>
+  <si>
+    <t>آلة خياطة, جهاز خياطة, آلة مفصلة, ماكينة خياطة</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>قرش</t>
+  </si>
+  <si>
+    <t>قرش, سمكة مفترسة, سمكة بحرية, سمكة كبيرة</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>خروف</t>
+  </si>
+  <si>
+    <t>خروف, حيوان رعي, حيوان لحمي, خروف صغير</t>
+  </si>
+  <si>
+    <t>Shelf</t>
+  </si>
+  <si>
+    <t>رف</t>
+  </si>
+  <si>
+    <t>رف, رف تخزين, شريط, رف للكتب</t>
+  </si>
+  <si>
+    <t>Shellfish</t>
+  </si>
+  <si>
+    <t>قشريات</t>
+  </si>
+  <si>
+    <t>قشريات, مأكولات بحرية, كائنات بحرية, محار</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>قميص</t>
+  </si>
+  <si>
+    <t>قميص, ملابس علوية, تي شيرت, قميص طويل الأكمام</t>
+  </si>
+  <si>
+    <t>Shorts</t>
+  </si>
+  <si>
+    <t>شورت</t>
+  </si>
+  <si>
+    <t>شورت, ملابس قصيرة, سروال قصير, زي رياضي</t>
+  </si>
+  <si>
+    <t>Shotgun</t>
+  </si>
+  <si>
+    <t>بندقية, سلاح ناري, بندقية صيد, بندقية موسي</t>
+  </si>
+  <si>
+    <t>Shower</t>
+  </si>
+  <si>
+    <t>دش</t>
+  </si>
+  <si>
+    <t>دش, حمام, دش استحمام, حوض استحمام</t>
+  </si>
+  <si>
+    <t>Shrimp</t>
+  </si>
+  <si>
+    <t>جمبري</t>
+  </si>
+  <si>
+    <t>جمبري, مأكولات بحرية, قريدس, محار</t>
+  </si>
+  <si>
+    <t>Sink</t>
+  </si>
+  <si>
+    <t>مغسلة</t>
+  </si>
+  <si>
+    <t>مغسلة, حوض, حوض غسيل, مغسلة مطبخ</t>
+  </si>
+  <si>
+    <t>Skateboard</t>
+  </si>
+  <si>
+    <t>تزلج على الألواح</t>
+  </si>
+  <si>
+    <t>تزلج على الألواح, لوح تزلج, جهاز تزلج, لوح رياضي</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>تنورة</t>
+  </si>
+  <si>
+    <t>تنورة, ملابس نسائية, تنورة طويلة, زي نسائي</t>
+  </si>
+  <si>
+    <t>Skyscraper</t>
+  </si>
+  <si>
+    <t>ناطحة سحاب</t>
+  </si>
+  <si>
+    <t>ناطحة سحاب, مبنى طويل, برج, بناء شاهق</t>
+  </si>
+  <si>
+    <t>Snack</t>
+  </si>
+  <si>
+    <t>وجبة خفيفة</t>
+  </si>
+  <si>
+    <t>وجبة خفيفة, طعام خفيف, قضمة, غذاء سريع</t>
+  </si>
+  <si>
+    <t>Snail</t>
+  </si>
+  <si>
+    <t>حلزون</t>
+  </si>
+  <si>
+    <t>حلزون, كائن رخوي, حيوان مائي, حيوان صغير</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>أفعى</t>
+  </si>
+  <si>
+    <t>أفعى, زواحف, حيوان سام, ثعبان</t>
+  </si>
+  <si>
+    <t>Snowboard</t>
+  </si>
+  <si>
+    <t>لوح تزلج على الثلج</t>
+  </si>
+  <si>
+    <t>لوح تزلج على الثلج, لوح تزلج, لوح رياضي, جهاز تزلج</t>
+  </si>
+  <si>
+    <t>Snowman</t>
+  </si>
+  <si>
+    <t>شخص ثلجي</t>
+  </si>
+  <si>
+    <t>شخص ثلجي, شخص متجمد, تمثال ثلجي, رجل ثلجي</t>
+  </si>
+  <si>
+    <t>Snowmobile</t>
+  </si>
+  <si>
+    <t>سكوتر ثلجي</t>
+  </si>
+  <si>
+    <t>سكوتر ثلجي, جهاز ثلجي, عربة ثلج, مركبة ثلجية</t>
+  </si>
+  <si>
+    <t>Soap dispenser</t>
+  </si>
+  <si>
+    <t>موزع صابون</t>
+  </si>
+  <si>
+    <t>موزع صابون, موزع صابون سائل, جهاز صابون, حاوية صابون</t>
+  </si>
+  <si>
+    <t>Sock</t>
+  </si>
+  <si>
+    <t>جورب</t>
+  </si>
+  <si>
+    <t>جورب, لباس قدم, حذاء داخلي, جوارب</t>
+  </si>
+  <si>
+    <t>Sofa bed</t>
+  </si>
+  <si>
+    <t>أريكة سرير</t>
+  </si>
+  <si>
+    <t>أريكة سرير, أريكة قابلة للفتح, سرير قابل للطوي, سرير مريح</t>
+  </si>
+  <si>
+    <t>Spatula</t>
+  </si>
+  <si>
+    <t>ملعقة</t>
+  </si>
+  <si>
+    <t>ملعقة, أداة تقليب, ملعقة مسطحة, ملعقة طويلة</t>
+  </si>
+  <si>
+    <t>Spice rack</t>
+  </si>
+  <si>
+    <t>رف التوابل</t>
+  </si>
+  <si>
+    <t>رف التوابل, منظم توابل, رف التوابل, حاوية توابل</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>عنكبوت</t>
+  </si>
+  <si>
+    <t>عنكبوت, حشرة, كائن زاحف, حشرة ذات شعر</t>
+  </si>
+  <si>
+    <t>Spoon</t>
+  </si>
+  <si>
+    <t>ملعقة, أداة أكل, أداة تقليب, ملعقة طعام</t>
+  </si>
+  <si>
+    <t>Sports equipment</t>
+  </si>
+  <si>
+    <t>معدات رياضية</t>
+  </si>
+  <si>
+    <t>معدات رياضية, أدوات رياضية, أدوات تدريب, معدات تمارين</t>
+  </si>
+  <si>
+    <t>Sports uniform</t>
+  </si>
+  <si>
+    <t>زي رياضي</t>
+  </si>
+  <si>
+    <t>زي رياضي, ملابس رياضية, طقم رياضي, زي تمرين</t>
+  </si>
+  <si>
+    <t>Squash (Plant)</t>
+  </si>
+  <si>
+    <t>شجرة نبات</t>
+  </si>
+  <si>
+    <t>شجرة نبات, فاكهة نباتية, نبات زيتوني, خضار</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>حبار</t>
+  </si>
+  <si>
+    <t>حبار, مأكولات بحرية, كائن مائي, أخطبوط</t>
+  </si>
+  <si>
+    <t>Squirrel</t>
+  </si>
+  <si>
+    <t>سنجاب</t>
+  </si>
+  <si>
+    <t>سنجاب, حيوان صغير, قارض, سنجاب شجري</t>
+  </si>
+  <si>
+    <t>Stairs</t>
+  </si>
+  <si>
+    <t>درج</t>
+  </si>
+  <si>
+    <t>درج, سلالم, أداة صعود, سلم متعدد الخطوات</t>
+  </si>
+  <si>
+    <t>Stapler</t>
+  </si>
+  <si>
+    <t>دباسة</t>
+  </si>
+  <si>
+    <t>دباسة, آلة دبابيس, جهاز دباسة, مكبس دبابيس</t>
+  </si>
+  <si>
+    <t>Starfish</t>
+  </si>
+  <si>
+    <t>نجمة البحر</t>
+  </si>
+  <si>
+    <t>نجمة البحر, مخلوق بحر, حيوان رخوي, حيوان مائي</t>
+  </si>
+  <si>
+    <t>Stationary bicycle</t>
+  </si>
+  <si>
+    <t>دراجة ثابتة</t>
+  </si>
+  <si>
+    <t>دراجة ثابتة, آلة رياضية, جهاز مشي ثابت, جهاز تمرين</t>
+  </si>
+  <si>
+    <t>Stethoscope</t>
+  </si>
+  <si>
+    <t>ستيثوسكوب</t>
+  </si>
+  <si>
+    <t>ستيثوسكوب, جهاز فحص, جهاز سماعة, جهاز طبي</t>
+  </si>
+  <si>
+    <t>Stool</t>
+  </si>
+  <si>
+    <t>كرسي</t>
+  </si>
+  <si>
+    <t>كرسي, أثاث صغير, طاولة صغيرة, كرسي مسطح</t>
+  </si>
+  <si>
+    <t>Stop sign</t>
+  </si>
+  <si>
+    <t>علامة توقف</t>
+  </si>
+  <si>
+    <t>علامة توقف, إشارة مرور, لافتة, إشارة تحذير</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>فراولة</t>
+  </si>
+  <si>
+    <t>فراولة, فاكهة حمراء, توت, فاكهة طازجة</t>
+  </si>
+  <si>
+    <t>Street light</t>
+  </si>
+  <si>
+    <t>مصباح شارع</t>
+  </si>
+  <si>
+    <t>مصباح شارع, إضاءة شارع, مصباح كهربائي, لمبة شارعية</t>
+  </si>
+  <si>
+    <t>Stretcher</t>
+  </si>
+  <si>
+    <t>نقالة</t>
+  </si>
+  <si>
+    <t>نقالة, حمالة, جهاز نقل, نقالة طبية</t>
+  </si>
+  <si>
+    <t>Studio couch</t>
+  </si>
+  <si>
+    <t>أريكة استوديو</t>
+  </si>
+  <si>
+    <t>أريكة استوديو, أريكة صغيرة, كرسي استوديو, مكان جلوس</t>
+  </si>
+  <si>
+    <t>Submarine</t>
+  </si>
+  <si>
+    <t>غواصة</t>
+  </si>
+  <si>
+    <t>غواصة, سفينة تحت البحر, مركبة مائية, غواصة بحرية</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>بدلة</t>
+  </si>
+  <si>
+    <t>بدلة, ملابس رسمية, طقم, زي</t>
+  </si>
+  <si>
+    <t>Suitcase</t>
+  </si>
+  <si>
+    <t>حقيبة سفر</t>
+  </si>
+  <si>
+    <t>حقيبة سفر, حقيبة, شنطة, حقيبة ملابس</t>
+  </si>
+  <si>
+    <t>Sun hat</t>
+  </si>
+  <si>
+    <t>قبعة شمسية</t>
+  </si>
+  <si>
+    <t>قبعة شمسية, قبعة, أكسسوارات رأس, قبعة صيفية</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>نظارات شمسية</t>
+  </si>
+  <si>
+    <t>نظارات شمسية, نظارات, أكسسوارات عيون, نظارات وقاية</t>
+  </si>
+  <si>
+    <t>Surfboard</t>
+  </si>
+  <si>
+    <t>لوح ركوب الأمواج</t>
+  </si>
+  <si>
+    <t>لوح ركوب الأمواج, لوح أمواج, لوح تزلج, جهاز مائي</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>سوشي</t>
+  </si>
+  <si>
+    <t>سوشي, طعام ياباني, أكلة يابانية, طبق مغطى بالأرز</t>
+  </si>
+  <si>
+    <t>Swan</t>
+  </si>
+  <si>
+    <t>بجع</t>
+  </si>
+  <si>
+    <t>بجع, طائر مائي, طائر طويل العنق, طائر جميل</t>
+  </si>
+  <si>
+    <t>Swim cap</t>
+  </si>
+  <si>
+    <t>غطاء السباحة</t>
+  </si>
+  <si>
+    <t>غطاء السباحة, قبعة السباحة, غطاء الرأس, غطاء مائي</t>
+  </si>
+  <si>
+    <t>Swimming pool</t>
+  </si>
+  <si>
+    <t>مسبح</t>
+  </si>
+  <si>
+    <t>مسبح, حمام سباحة, بركة سباحة, حوض مائي</t>
+  </si>
+  <si>
+    <t>Swimwear</t>
+  </si>
+  <si>
+    <t>ملابس السباحة</t>
+  </si>
+  <si>
+    <t>ملابس السباحة, زيا سباحة, ملابس مائية, بذلة سباحة</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>سيف</t>
+  </si>
+  <si>
+    <t>سيف, سلاح حاد, سلاح أبيض, سكين كبير</t>
+  </si>
+  <si>
+    <t>Syringe</t>
+  </si>
+  <si>
+    <t>إبرة</t>
+  </si>
+  <si>
+    <t>إبرة, محقنة, أداة حقن, إبرة طبية</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>طاولة</t>
+  </si>
+  <si>
+    <t>طاولة, مكتب, سطح عمل, طاولة طعام</t>
+  </si>
+  <si>
+    <t>Table tennis racket</t>
+  </si>
+  <si>
+    <t>مضرب تنس الطاولة</t>
+  </si>
+  <si>
+    <t>مضرب تنس الطاولة, مضرب, أداة لعب, أداة رياضية</t>
+  </si>
+  <si>
+    <t>Tablet computer</t>
+  </si>
+  <si>
+    <t>جهاز لوحي</t>
+  </si>
+  <si>
+    <t>جهاز لوحي, تابلت, جهاز كمبيوتر محمول, كمبيوتر لوحي</t>
+  </si>
+  <si>
+    <t>Tableware</t>
+  </si>
+  <si>
+    <t>أدوات المائدة</t>
+  </si>
+  <si>
+    <t>أدوات المائدة, أدوات طعام, صحن, أكواب</t>
+  </si>
+  <si>
+    <t>Taco</t>
+  </si>
+  <si>
+    <t>تاكو</t>
+  </si>
+  <si>
+    <t>تاكو, طعام مكسيكي, شطيرة مكسيكية, لفافة</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>دبابة</t>
+  </si>
+  <si>
+    <t>دبابة, مركبة عسكرية, آلية حربية, آلة حرب</t>
+  </si>
+  <si>
+    <t>Tap</t>
+  </si>
+  <si>
+    <t>صنبور</t>
+  </si>
+  <si>
+    <t>صنبور, مجرى ماء, محبس, صمام</t>
+  </si>
+  <si>
+    <t>Tart</t>
+  </si>
+  <si>
+    <t>تورتة</t>
+  </si>
+  <si>
+    <t>تورتة, فطيرة, حلوى, كعكة</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>تاكسي</t>
+  </si>
+  <si>
+    <t>تاكسي, سيارة أجرة, سيارة نقل, مركبة</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>شاي</t>
+  </si>
+  <si>
+    <t>شاي, مشروب ساخن, شاي أخضر, مشروب مهدئ</t>
+  </si>
+  <si>
+    <t>Teapot</t>
+  </si>
+  <si>
+    <t>إبريق شاي</t>
+  </si>
+  <si>
+    <t>إبريق شاي, وعاء شاي, دلة شاي, غلاية شاي</t>
+  </si>
+  <si>
+    <t>Teddy bear</t>
+  </si>
+  <si>
+    <t>دب محشو</t>
+  </si>
+  <si>
+    <t>دب محشو, دب, لعبة محشوة, دمية دمية</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>هاتف</t>
+  </si>
+  <si>
+    <t>هاتف, جهاز اتصال, جهاز هاتف, هاتف ثابت</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>تلفزيون</t>
+  </si>
+  <si>
+    <t>تلفزيون, جهاز عرض, شاشة, جهاز ترفيه</t>
+  </si>
+  <si>
+    <t>Tennis ball</t>
+  </si>
+  <si>
+    <t>كرة تنس</t>
+  </si>
+  <si>
+    <t>كرة تنس, كرة رياضية, كرة مطاطية, كرة صغيرة</t>
+  </si>
+  <si>
+    <t>Tennis racket</t>
+  </si>
+  <si>
+    <t>مضرب تنس</t>
+  </si>
+  <si>
+    <t>مضرب تنس, أداة رياضية, مضرب, أداة ضرب</t>
+  </si>
+  <si>
+    <t>Tent</t>
+  </si>
+  <si>
+    <t>خيمة</t>
+  </si>
+  <si>
+    <t>خيمة, ملجأ, مأوى, مكان للتخييم</t>
+  </si>
+  <si>
+    <t>Tiara</t>
+  </si>
+  <si>
+    <t>تاج</t>
+  </si>
+  <si>
+    <t>تاج, إكليل, تاج ملكي, زينة رأس</t>
+  </si>
+  <si>
+    <t>Tie</t>
+  </si>
+  <si>
+    <t>رباط عنق</t>
+  </si>
+  <si>
+    <t>رباط عنق, شريط عنق, دبل, عقدة</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>نمر</t>
+  </si>
+  <si>
+    <t>نمر, فهد, حيوان مفترس, قطة كبيرة</t>
+  </si>
+  <si>
+    <t>Tin can</t>
+  </si>
+  <si>
+    <t>علبة حديد</t>
+  </si>
+  <si>
+    <t>علبة حديد, علبة, علبة معدنية, علبة فارغة</t>
+  </si>
+  <si>
+    <t>Tire</t>
+  </si>
+  <si>
+    <t>إطار</t>
+  </si>
+  <si>
+    <t>إطار, عجلة, مطاط السيارة, إطار عجلة</t>
+  </si>
+  <si>
+    <t>Toaster</t>
+  </si>
+  <si>
+    <t>محمص الخبز</t>
+  </si>
+  <si>
+    <t>محمص الخبز, جهاز تحميص, جهاز خبز, محمص</t>
+  </si>
+  <si>
+    <t>Toilet</t>
+  </si>
+  <si>
+    <t>مرحاض</t>
+  </si>
+  <si>
+    <t>مرحاض, حمام, دورة مياه, مرحاض صحي</t>
+  </si>
+  <si>
+    <t>Toilet paper</t>
+  </si>
+  <si>
+    <t>ورق تواليت</t>
+  </si>
+  <si>
+    <t>ورق تواليت, ورق حمام, ورق مخصص, ورق صحي</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>طماطم</t>
+  </si>
+  <si>
+    <t>طماطم, خضار, فاكهة حمراء, فاكهة طازجة</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>أداة</t>
+  </si>
+  <si>
+    <t>أداة, معدة, جهاز, أداة حادة</t>
+  </si>
+  <si>
+    <t>Toothbrush</t>
+  </si>
+  <si>
+    <t>فرشاة أسنان</t>
+  </si>
+  <si>
+    <t>فرشاة أسنان, أداة تنظيف, أداة نظافة, فرشاة</t>
+  </si>
+  <si>
+    <t>Torch</t>
+  </si>
+  <si>
+    <t>مصباح يدوي</t>
+  </si>
+  <si>
+    <t>مصباح يدوي, مصباح كهربائي, مصباح محمول, مصدر ضوء</t>
+  </si>
+  <si>
+    <t>Tortoise</t>
+  </si>
+  <si>
+    <t>سلحفاة</t>
+  </si>
+  <si>
+    <t>سلحفاة, حيوان بطيء, كائن زاحف, حيوان برمائي</t>
+  </si>
+  <si>
+    <t>Towel</t>
+  </si>
+  <si>
+    <t>منشفة</t>
+  </si>
+  <si>
+    <t>منشفة, قماش جاف, ورقة تنشيف, قطعة قماش</t>
+  </si>
+  <si>
+    <t>Tower</t>
+  </si>
+  <si>
+    <t>برج</t>
+  </si>
+  <si>
+    <t>برج, مبنى, هيكل, هيكل طويل</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>لعبة</t>
+  </si>
+  <si>
+    <t>لعبة, أداة ترفيه, دمية, أداة لعب</t>
+  </si>
+  <si>
+    <t>Traffic light</t>
+  </si>
+  <si>
+    <t>إشارة المرور</t>
+  </si>
+  <si>
+    <t>إشارة المرور, إشارة توقف, إشارة حركة المرور, ضوء المرور</t>
+  </si>
+  <si>
+    <t>Traffic sign</t>
+  </si>
+  <si>
+    <t>علامة المرور</t>
+  </si>
+  <si>
+    <t>علامة المرور, إشارة, لافتة, علامة تحذير</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>قطار</t>
+  </si>
+  <si>
+    <t>قطار, مركبة سكة حديدية, قطار كهربائي, قطار ركاب</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>شجرة</t>
+  </si>
+  <si>
+    <t>شجرة, نبات, كائن نباتي, شجرة دائمة الخضرة</t>
+  </si>
+  <si>
+    <t>Tripod</t>
+  </si>
+  <si>
+    <t>حامل ثلاثي القوائم</t>
+  </si>
+  <si>
+    <t>حامل ثلاثي القوائم, دعام, أداة تصوير, مسند كاميرا</t>
+  </si>
+  <si>
+    <t>Trousers</t>
+  </si>
+  <si>
+    <t>سروال</t>
+  </si>
+  <si>
+    <t>سروال, بنطال, بنطلون, شورت</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>شاحنة</t>
+  </si>
+  <si>
+    <t>شاحنة, مركبة نقل, سيارة كبيرة, عربة نقل</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>ديك رومي</t>
+  </si>
+  <si>
+    <t>ديك رومي, طائر, لحوم, طائر كبير</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>سلحفاة, حيوان بطيء, كائن مائي, حيوان صدفي</t>
+  </si>
+  <si>
+    <t>Umbrella</t>
+  </si>
+  <si>
+    <t>مظلة, مظلة شمسية, غطاء حماية, غطاء مائي</t>
+  </si>
+  <si>
+    <t>Unicycle</t>
+  </si>
+  <si>
+    <t>دراجة أحادية</t>
+  </si>
+  <si>
+    <t>دراجة أحادية, دراجة فردية, مركبة ذات عجلة واحدة, جهاز توازن</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>فان</t>
+  </si>
+  <si>
+    <t>فان, سيارة نقل, مركبة نقل, سيارة صغيرة</t>
+  </si>
+  <si>
+    <t>Vase</t>
+  </si>
+  <si>
+    <t>مزهرية</t>
+  </si>
+  <si>
+    <t>مزهرية, حاوية زهور, وعاء, حاوية جميلة</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>خضار</t>
+  </si>
+  <si>
+    <t>خضار, نبات صالح للأكل, خضروات, طعام صحي</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>مركبة</t>
+  </si>
+  <si>
+    <t>مركبة, سيارة, دراجة, وسائل النقل</t>
+  </si>
+  <si>
+    <t>Vehicle registration plate</t>
+  </si>
+  <si>
+    <t>لوحة تسجيل المركبة</t>
+  </si>
+  <si>
+    <t>لوحة تسجيل المركبة, لوحة ترخيص, رقم تسجيل, لوحة مرورية</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>كمان</t>
+  </si>
+  <si>
+    <t>كمان, آلة موسيقية, آلة وترية, أداة موسيقية</t>
+  </si>
+  <si>
+    <t>Volleyball (Ball)</t>
+  </si>
+  <si>
+    <t>كرة طائرة</t>
+  </si>
+  <si>
+    <t>كرة طائرة, كرة رياضية, كرة مطاطية, كرة كبيرة</t>
+  </si>
+  <si>
+    <t>Waffle</t>
+  </si>
+  <si>
+    <t>وافل</t>
+  </si>
+  <si>
+    <t>وافل, فطيرة سائلة, معجنات, طعام فطور</t>
+  </si>
+  <si>
+    <t>Waffle iron</t>
+  </si>
+  <si>
+    <t>آلة الوافل</t>
+  </si>
+  <si>
+    <t>آلة الوافل, آلة خبز, جهاز تسخين, جهاز معجنات</t>
+  </si>
+  <si>
+    <t>Wall clock</t>
+  </si>
+  <si>
+    <t>ساعة حائط</t>
+  </si>
+  <si>
+    <t>ساعة حائط, ساعة, جهاز توقيت, ساعة على الجدار</t>
+  </si>
+  <si>
+    <t>Wardrobe</t>
+  </si>
+  <si>
+    <t>خزانة</t>
+  </si>
+  <si>
+    <t>خزانة, دولاب, خزانة ملابس, رف ملابس</t>
+  </si>
+  <si>
+    <t>Washing machine</t>
+  </si>
+  <si>
+    <t>غسالة</t>
+  </si>
+  <si>
+    <t>غسالة, آلة غسل, جهاز تنظيف, غسالة كهربائية</t>
+  </si>
+  <si>
+    <t>Waste container</t>
+  </si>
+  <si>
+    <t>حاوية نفايات</t>
+  </si>
+  <si>
+    <t>حاوية نفايات, صندوق قمامة, حاوية قمامة, سلة نفايات</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>ساعة</t>
+  </si>
+  <si>
+    <t>ساعة, جهاز توقيت, ساعة يد, ساعة حائط</t>
+  </si>
+  <si>
+    <t>Watercraft</t>
+  </si>
+  <si>
+    <t>مركبة مائية</t>
+  </si>
+  <si>
+    <t>مركبة مائية, قارب, زورق, سفينة</t>
+  </si>
+  <si>
+    <t>Watermelon</t>
+  </si>
+  <si>
+    <t>بطيخ</t>
+  </si>
+  <si>
+    <t>بطيخ, فاكهة, فاكهة صيفية, بطيخ أحمر</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>سلاح</t>
+  </si>
+  <si>
+    <t>سلاح, أداة حربية, أداة قتل, جهاز هجوم</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>حوت</t>
+  </si>
+  <si>
+    <t>حوت, حيوان مائي, مخلوق بحري, حيوان ضخم</t>
+  </si>
+  <si>
+    <t>Wheel</t>
+  </si>
+  <si>
+    <t>عجلة</t>
+  </si>
+  <si>
+    <t>عجلة, إطار, دائرة, عجلة نقل</t>
+  </si>
+  <si>
+    <t>Wheelchair</t>
+  </si>
+  <si>
+    <t>كرسي متحرك</t>
+  </si>
+  <si>
+    <t>كرسي متحرك, جهاز حركي, كرسي تنقل, جهاز طبية</t>
+  </si>
+  <si>
+    <t>Whisk</t>
+  </si>
+  <si>
+    <t>خافق</t>
+  </si>
+  <si>
+    <t>خافق, أداة تقليب, جهاز خفق, أداة خلط</t>
+  </si>
+  <si>
+    <t>Whiteboard</t>
+  </si>
+  <si>
+    <t>لوح أبيض</t>
+  </si>
+  <si>
+    <t>لوح أبيض, لوحة كتابة, لوح عرض, سطح أبيض</t>
+  </si>
+  <si>
+    <t>Window blind</t>
+  </si>
+  <si>
+    <t>ستارة نافذة</t>
+  </si>
+  <si>
+    <t>ستارة نافذة, غطاء نافذة, حجاب نافذة, نافذة مغلقة</t>
+  </si>
+  <si>
+    <t>Wok</t>
+  </si>
+  <si>
+    <t>ووك</t>
+  </si>
+  <si>
+    <t>ووك, قدر, إناء للطهي, وعاء طهي عميق</t>
+  </si>
+  <si>
+    <t>Woman</t>
+  </si>
+  <si>
+    <t>امرأة</t>
+  </si>
+  <si>
+    <t>امرأة, أنثى, سيدة, فتاة</t>
+  </si>
+  <si>
+    <t>Wood-burning stove</t>
+  </si>
+  <si>
+    <t>مدفأة حطب</t>
+  </si>
+  <si>
+    <t>مدفأة حطب, جهاز تدفئة, موقد حطب, مدفأة</t>
+  </si>
+  <si>
+    <t>Woodpecker</t>
+  </si>
+  <si>
+    <t>طائر نقار الخشب</t>
+  </si>
+  <si>
+    <t>طائر نقار الخشب, طائر, نقار, طائر خشب</t>
+  </si>
+  <si>
+    <t>Worm</t>
+  </si>
+  <si>
+    <t>دودة</t>
+  </si>
+  <si>
+    <t>دودة, حشرة, كائن رخوي, دودة أرض</t>
+  </si>
+  <si>
+    <t>Wrench</t>
+  </si>
+  <si>
+    <t>مفتاح ربط</t>
+  </si>
+  <si>
+    <t>مفتاح ربط, أداة يدوية, أداة ميكانيكية, مفتاح</t>
+  </si>
+  <si>
+    <t>Zebra</t>
+  </si>
+  <si>
+    <t>حمار وحشي</t>
+  </si>
+  <si>
+    <t>حمار وحشي, حيوان بري, حصان مخطط, حيوان ذو خطوط</t>
+  </si>
+  <si>
+    <t>Zucchini</t>
+  </si>
+  <si>
+    <t>كوسا</t>
+  </si>
+  <si>
+    <t>كوسا, خضار, نبات صالح للأكل, نوع من الكوسا</t>
   </si>
 </sst>
 </file>
@@ -1267,10 +2734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2314,6 +3781,1821 @@
         <v>281</v>
       </c>
     </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" t="s">
+        <v>283</v>
+      </c>
+      <c r="C95" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>286</v>
+      </c>
+      <c r="C96" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>291</v>
+      </c>
+      <c r="B98" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>294</v>
+      </c>
+      <c r="B99" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" t="s">
+        <v>298</v>
+      </c>
+      <c r="C100" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>300</v>
+      </c>
+      <c r="B101" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>306</v>
+      </c>
+      <c r="B103" t="s">
+        <v>307</v>
+      </c>
+      <c r="C103" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>309</v>
+      </c>
+      <c r="B104" t="s">
+        <v>310</v>
+      </c>
+      <c r="C104" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" t="s">
+        <v>313</v>
+      </c>
+      <c r="C105" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>315</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>317</v>
+      </c>
+      <c r="B107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C107" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>320</v>
+      </c>
+      <c r="B108" t="s">
+        <v>321</v>
+      </c>
+      <c r="C108" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>323</v>
+      </c>
+      <c r="B109" t="s">
+        <v>324</v>
+      </c>
+      <c r="C109" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>326</v>
+      </c>
+      <c r="B110" t="s">
+        <v>327</v>
+      </c>
+      <c r="C110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>329</v>
+      </c>
+      <c r="B111" t="s">
+        <v>330</v>
+      </c>
+      <c r="C111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" t="s">
+        <v>333</v>
+      </c>
+      <c r="C112" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>338</v>
+      </c>
+      <c r="B114" t="s">
+        <v>339</v>
+      </c>
+      <c r="C114" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>341</v>
+      </c>
+      <c r="B115" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>349</v>
+      </c>
+      <c r="B118" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>352</v>
+      </c>
+      <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>355</v>
+      </c>
+      <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>361</v>
+      </c>
+      <c r="B122" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>364</v>
+      </c>
+      <c r="B123" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>367</v>
+      </c>
+      <c r="B124" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>370</v>
+      </c>
+      <c r="B125" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>373</v>
+      </c>
+      <c r="B126" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>376</v>
+      </c>
+      <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>382</v>
+      </c>
+      <c r="B129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>385</v>
+      </c>
+      <c r="B130" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>388</v>
+      </c>
+      <c r="B131" t="s">
+        <v>389</v>
+      </c>
+      <c r="C131" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>391</v>
+      </c>
+      <c r="B132" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>394</v>
+      </c>
+      <c r="B133" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>397</v>
+      </c>
+      <c r="B134" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C136" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" t="s">
+        <v>406</v>
+      </c>
+      <c r="C137" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>408</v>
+      </c>
+      <c r="B138" t="s">
+        <v>409</v>
+      </c>
+      <c r="C138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>411</v>
+      </c>
+      <c r="B139" t="s">
+        <v>412</v>
+      </c>
+      <c r="C139" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>414</v>
+      </c>
+      <c r="B140" t="s">
+        <v>415</v>
+      </c>
+      <c r="C140" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>417</v>
+      </c>
+      <c r="B141" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>423</v>
+      </c>
+      <c r="B143" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>426</v>
+      </c>
+      <c r="B144" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>429</v>
+      </c>
+      <c r="B145" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>432</v>
+      </c>
+      <c r="B146" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>435</v>
+      </c>
+      <c r="B147" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>438</v>
+      </c>
+      <c r="B148" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>441</v>
+      </c>
+      <c r="B149" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>444</v>
+      </c>
+      <c r="B150" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>447</v>
+      </c>
+      <c r="B151" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>450</v>
+      </c>
+      <c r="B152" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>453</v>
+      </c>
+      <c r="B153" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>456</v>
+      </c>
+      <c r="B154" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>459</v>
+      </c>
+      <c r="B155" t="s">
+        <v>451</v>
+      </c>
+      <c r="C155" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>461</v>
+      </c>
+      <c r="B156" t="s">
+        <v>462</v>
+      </c>
+      <c r="C156" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>464</v>
+      </c>
+      <c r="B157" t="s">
+        <v>465</v>
+      </c>
+      <c r="C157" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>467</v>
+      </c>
+      <c r="B158" t="s">
+        <v>468</v>
+      </c>
+      <c r="C158" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>470</v>
+      </c>
+      <c r="B159" t="s">
+        <v>471</v>
+      </c>
+      <c r="C159" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>473</v>
+      </c>
+      <c r="B160" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>476</v>
+      </c>
+      <c r="B161" t="s">
+        <v>477</v>
+      </c>
+      <c r="C161" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>479</v>
+      </c>
+      <c r="B162" t="s">
+        <v>480</v>
+      </c>
+      <c r="C162" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>482</v>
+      </c>
+      <c r="B163" t="s">
+        <v>483</v>
+      </c>
+      <c r="C163" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>485</v>
+      </c>
+      <c r="B164" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" t="s">
+        <v>489</v>
+      </c>
+      <c r="C165" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>491</v>
+      </c>
+      <c r="B166" t="s">
+        <v>492</v>
+      </c>
+      <c r="C166" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" t="s">
+        <v>495</v>
+      </c>
+      <c r="C167" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>497</v>
+      </c>
+      <c r="B168" t="s">
+        <v>498</v>
+      </c>
+      <c r="C168" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>500</v>
+      </c>
+      <c r="B169" t="s">
+        <v>501</v>
+      </c>
+      <c r="C169" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>503</v>
+      </c>
+      <c r="B170" t="s">
+        <v>504</v>
+      </c>
+      <c r="C170" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>506</v>
+      </c>
+      <c r="B171" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>509</v>
+      </c>
+      <c r="B172" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>512</v>
+      </c>
+      <c r="B173" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>515</v>
+      </c>
+      <c r="B174" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>518</v>
+      </c>
+      <c r="B175" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>524</v>
+      </c>
+      <c r="B177" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>527</v>
+      </c>
+      <c r="B178" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>530</v>
+      </c>
+      <c r="B179" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>533</v>
+      </c>
+      <c r="B180" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>536</v>
+      </c>
+      <c r="B181" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>539</v>
+      </c>
+      <c r="B182" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>542</v>
+      </c>
+      <c r="B183" t="s">
+        <v>543</v>
+      </c>
+      <c r="C183" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>545</v>
+      </c>
+      <c r="B184" t="s">
+        <v>546</v>
+      </c>
+      <c r="C184" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>548</v>
+      </c>
+      <c r="B185" t="s">
+        <v>549</v>
+      </c>
+      <c r="C185" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>551</v>
+      </c>
+      <c r="B186" t="s">
+        <v>552</v>
+      </c>
+      <c r="C186" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>554</v>
+      </c>
+      <c r="B187" t="s">
+        <v>555</v>
+      </c>
+      <c r="C187" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>557</v>
+      </c>
+      <c r="B188" t="s">
+        <v>558</v>
+      </c>
+      <c r="C188" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>560</v>
+      </c>
+      <c r="B189" t="s">
+        <v>561</v>
+      </c>
+      <c r="C189" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>563</v>
+      </c>
+      <c r="B190" t="s">
+        <v>564</v>
+      </c>
+      <c r="C190" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>566</v>
+      </c>
+      <c r="B191" t="s">
+        <v>567</v>
+      </c>
+      <c r="C191" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>569</v>
+      </c>
+      <c r="B192" t="s">
+        <v>570</v>
+      </c>
+      <c r="C192" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>572</v>
+      </c>
+      <c r="B193" t="s">
+        <v>573</v>
+      </c>
+      <c r="C193" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>575</v>
+      </c>
+      <c r="B194" t="s">
+        <v>576</v>
+      </c>
+      <c r="C194" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>578</v>
+      </c>
+      <c r="B195" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>581</v>
+      </c>
+      <c r="B196" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>584</v>
+      </c>
+      <c r="B197" t="s">
+        <v>585</v>
+      </c>
+      <c r="C197" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>587</v>
+      </c>
+      <c r="B198" t="s">
+        <v>588</v>
+      </c>
+      <c r="C198" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>590</v>
+      </c>
+      <c r="B199" t="s">
+        <v>591</v>
+      </c>
+      <c r="C199" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>593</v>
+      </c>
+      <c r="B200" t="s">
+        <v>594</v>
+      </c>
+      <c r="C200" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>596</v>
+      </c>
+      <c r="B201" t="s">
+        <v>597</v>
+      </c>
+      <c r="C201" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>599</v>
+      </c>
+      <c r="B202" t="s">
+        <v>600</v>
+      </c>
+      <c r="C202" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>602</v>
+      </c>
+      <c r="B203" t="s">
+        <v>603</v>
+      </c>
+      <c r="C203" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>605</v>
+      </c>
+      <c r="B204" t="s">
+        <v>606</v>
+      </c>
+      <c r="C204" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>608</v>
+      </c>
+      <c r="B205" t="s">
+        <v>609</v>
+      </c>
+      <c r="C205" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>611</v>
+      </c>
+      <c r="B206" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>614</v>
+      </c>
+      <c r="B207" t="s">
+        <v>615</v>
+      </c>
+      <c r="C207" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>617</v>
+      </c>
+      <c r="B208" t="s">
+        <v>618</v>
+      </c>
+      <c r="C208" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>620</v>
+      </c>
+      <c r="B209" t="s">
+        <v>621</v>
+      </c>
+      <c r="C209" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>623</v>
+      </c>
+      <c r="B210" t="s">
+        <v>624</v>
+      </c>
+      <c r="C210" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>626</v>
+      </c>
+      <c r="B211" t="s">
+        <v>627</v>
+      </c>
+      <c r="C211" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>629</v>
+      </c>
+      <c r="B212" t="s">
+        <v>630</v>
+      </c>
+      <c r="C212" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>632</v>
+      </c>
+      <c r="B213" t="s">
+        <v>633</v>
+      </c>
+      <c r="C213" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>635</v>
+      </c>
+      <c r="B214" t="s">
+        <v>636</v>
+      </c>
+      <c r="C214" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>638</v>
+      </c>
+      <c r="B215" t="s">
+        <v>639</v>
+      </c>
+      <c r="C215" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>641</v>
+      </c>
+      <c r="B216" t="s">
+        <v>642</v>
+      </c>
+      <c r="C216" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>644</v>
+      </c>
+      <c r="B217" t="s">
+        <v>645</v>
+      </c>
+      <c r="C217" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>647</v>
+      </c>
+      <c r="B218" t="s">
+        <v>648</v>
+      </c>
+      <c r="C218" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>650</v>
+      </c>
+      <c r="B219" t="s">
+        <v>651</v>
+      </c>
+      <c r="C219" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>653</v>
+      </c>
+      <c r="B220" t="s">
+        <v>654</v>
+      </c>
+      <c r="C220" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>656</v>
+      </c>
+      <c r="B221" t="s">
+        <v>657</v>
+      </c>
+      <c r="C221" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>659</v>
+      </c>
+      <c r="B222" t="s">
+        <v>660</v>
+      </c>
+      <c r="C222" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>662</v>
+      </c>
+      <c r="B223" t="s">
+        <v>663</v>
+      </c>
+      <c r="C223" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>665</v>
+      </c>
+      <c r="B224" t="s">
+        <v>666</v>
+      </c>
+      <c r="C224" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>668</v>
+      </c>
+      <c r="B225" t="s">
+        <v>669</v>
+      </c>
+      <c r="C225" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>671</v>
+      </c>
+      <c r="B226" t="s">
+        <v>636</v>
+      </c>
+      <c r="C226" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>673</v>
+      </c>
+      <c r="B227" t="s">
+        <v>150</v>
+      </c>
+      <c r="C227" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>675</v>
+      </c>
+      <c r="B228" t="s">
+        <v>676</v>
+      </c>
+      <c r="C228" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>678</v>
+      </c>
+      <c r="B229" t="s">
+        <v>679</v>
+      </c>
+      <c r="C229" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>681</v>
+      </c>
+      <c r="B230" t="s">
+        <v>682</v>
+      </c>
+      <c r="C230" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>684</v>
+      </c>
+      <c r="B231" t="s">
+        <v>685</v>
+      </c>
+      <c r="C231" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>687</v>
+      </c>
+      <c r="B232" t="s">
+        <v>688</v>
+      </c>
+      <c r="C232" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>690</v>
+      </c>
+      <c r="B233" t="s">
+        <v>691</v>
+      </c>
+      <c r="C233" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>693</v>
+      </c>
+      <c r="B234" t="s">
+        <v>694</v>
+      </c>
+      <c r="C234" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>696</v>
+      </c>
+      <c r="B235" t="s">
+        <v>697</v>
+      </c>
+      <c r="C235" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>699</v>
+      </c>
+      <c r="B236" t="s">
+        <v>700</v>
+      </c>
+      <c r="C236" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>702</v>
+      </c>
+      <c r="B237" t="s">
+        <v>703</v>
+      </c>
+      <c r="C237" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>705</v>
+      </c>
+      <c r="B238" t="s">
+        <v>706</v>
+      </c>
+      <c r="C238" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>708</v>
+      </c>
+      <c r="B239" t="s">
+        <v>709</v>
+      </c>
+      <c r="C239" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>711</v>
+      </c>
+      <c r="B240" t="s">
+        <v>712</v>
+      </c>
+      <c r="C240" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>714</v>
+      </c>
+      <c r="B241" t="s">
+        <v>715</v>
+      </c>
+      <c r="C241" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>717</v>
+      </c>
+      <c r="B242" t="s">
+        <v>718</v>
+      </c>
+      <c r="C242" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>720</v>
+      </c>
+      <c r="B243" t="s">
+        <v>721</v>
+      </c>
+      <c r="C243" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>723</v>
+      </c>
+      <c r="B244" t="s">
+        <v>724</v>
+      </c>
+      <c r="C244" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>726</v>
+      </c>
+      <c r="B245" t="s">
+        <v>727</v>
+      </c>
+      <c r="C245" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>729</v>
+      </c>
+      <c r="B246" t="s">
+        <v>730</v>
+      </c>
+      <c r="C246" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>732</v>
+      </c>
+      <c r="B247" t="s">
+        <v>733</v>
+      </c>
+      <c r="C247" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>735</v>
+      </c>
+      <c r="B248" t="s">
+        <v>736</v>
+      </c>
+      <c r="C248" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>738</v>
+      </c>
+      <c r="B249" t="s">
+        <v>739</v>
+      </c>
+      <c r="C249" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>741</v>
+      </c>
+      <c r="B250" t="s">
+        <v>742</v>
+      </c>
+      <c r="C250" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>744</v>
+      </c>
+      <c r="B251" t="s">
+        <v>745</v>
+      </c>
+      <c r="C251" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>747</v>
+      </c>
+      <c r="B252" t="s">
+        <v>748</v>
+      </c>
+      <c r="C252" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>750</v>
+      </c>
+      <c r="B253" t="s">
+        <v>751</v>
+      </c>
+      <c r="C253" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>753</v>
+      </c>
+      <c r="B254" t="s">
+        <v>754</v>
+      </c>
+      <c r="C254" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>756</v>
+      </c>
+      <c r="B255" t="s">
+        <v>757</v>
+      </c>
+      <c r="C255" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>759</v>
+      </c>
+      <c r="B256" t="s">
+        <v>760</v>
+      </c>
+      <c r="C256" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>762</v>
+      </c>
+      <c r="B257" t="s">
+        <v>763</v>
+      </c>
+      <c r="C257" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>765</v>
+      </c>
+      <c r="B258" t="s">
+        <v>766</v>
+      </c>
+      <c r="C258" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>768</v>
+      </c>
+      <c r="B259" t="s">
+        <v>769</v>
+      </c>
+      <c r="C259" t="s">
+        <v>770</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
